--- a/backup_proximos_partidos.xlsx
+++ b/backup_proximos_partidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuqui\Documents\Escritorio\CAT\TC\WEB_ROJO 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB2DC40-D507-4F94-AFB8-74BE323E780D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E6A28-A064-4845-8FFE-865BE77044B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Historial_Consultas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="91">
   <si>
     <t>equipo</t>
   </si>
@@ -51,12 +54,12 @@
     <t>competicion</t>
   </si>
   <si>
+    <t>Proximo Rival</t>
+  </si>
+  <si>
     <t>fecha_consulta</t>
   </si>
   <si>
-    <t>Arsenal de Sarandí</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -69,10 +72,19 @@
     <t>Desconocida</t>
   </si>
   <si>
-    <t>2025-08-05 09:02:30</t>
-  </si>
-  <si>
-    <t>Gimnasia y Esgrima Mendoza</t>
+    <t>2025-08-05 12:02:00</t>
+  </si>
+  <si>
+    <t>AD Union Magdalena</t>
+  </si>
+  <si>
+    <t>Union Magdalena</t>
+  </si>
+  <si>
+    <t>Deportivo Pasto</t>
+  </si>
+  <si>
+    <t>miércoles, 06/08/2025 - 20:00</t>
   </si>
   <si>
     <t>Dep. Morón</t>
@@ -90,9 +102,6 @@
     <t>martes, 05/08/2025 - 21:00</t>
   </si>
   <si>
-    <t>Club atletico Tigre</t>
-  </si>
-  <si>
     <t>Tigre</t>
   </si>
   <si>
@@ -264,9 +273,6 @@
     <t>CA Rosario Central</t>
   </si>
   <si>
-    <t>Club atletico San Martín San Juan</t>
-  </si>
-  <si>
     <t>San Martín (SJ)</t>
   </si>
   <si>
@@ -288,19 +294,22 @@
     <t>Equipos Fallidos</t>
   </si>
   <si>
-    <t>AD Union Magdalena</t>
-  </si>
-  <si>
-    <t>Union Magadalena</t>
-  </si>
-  <si>
-    <t>Deportivo Pasto</t>
-  </si>
-  <si>
-    <t>miércoles, 06/08/2025 - 20:00</t>
+    <t>Arsenal FC</t>
+  </si>
+  <si>
+    <t>CA Gimnasia y Esgrima (Mendoza)</t>
+  </si>
+  <si>
+    <t>CA San Martín (San Juan)</t>
+  </si>
+  <si>
+    <t>CA Tigre</t>
   </si>
   <si>
     <t>domingo, 10/08/2025 - 16:30</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
   </si>
 </sst>
 </file>
@@ -664,23 +673,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,444 +709,513 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1149,24 +1228,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
